--- a/Data/VolunteersV02.xlsx
+++ b/Data/VolunteersV02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iowa-my.sharepoint.com/personal/martie_uiowa_edu/Documents/Work/ISRP/Project3/Wristband/WristBandProject/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{7C341129-3D96-3C49-AA99-7D534F77425B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8586BF50-F24D-A54E-ABC2-08614C34CDE8}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{7C341129-3D96-3C49-AA99-7D534F77425B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{820845C4-B06F-B14F-AA7A-40FDFD77077D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16900" xr2:uid="{59579006-5D5C-E441-B1BF-CC0305387B64}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -100,8 +100,8 @@
       <sheetName val="Datafor R"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="A1" t="str">
@@ -634,6 +634,9 @@
           <cell r="A2" t="str">
             <v>STAT01</v>
           </cell>
+          <cell r="B2">
+            <v>5.9590277777824667</v>
+          </cell>
           <cell r="C2">
             <v>2.6033440058732388E-2</v>
           </cell>
@@ -1158,6 +1161,9 @@
           <cell r="A3" t="str">
             <v>STAT02</v>
           </cell>
+          <cell r="B3">
+            <v>4.0868055555547471</v>
+          </cell>
           <cell r="C3">
             <v>1.3796577609584306E-2</v>
           </cell>
@@ -1682,6 +1688,9 @@
           <cell r="A4" t="str">
             <v>STAT03</v>
           </cell>
+          <cell r="B4">
+            <v>4.3895833333372138</v>
+          </cell>
           <cell r="C4">
             <v>7.3742640219377808E-3</v>
           </cell>
@@ -2206,6 +2215,9 @@
           <cell r="A5" t="str">
             <v>MILI_L</v>
           </cell>
+          <cell r="B5">
+            <v>0</v>
+          </cell>
           <cell r="C5">
             <v>1.6184250313396292E-2</v>
           </cell>
@@ -2730,6 +2742,9 @@
           <cell r="A6" t="str">
             <v>MILI_R</v>
           </cell>
+          <cell r="B6">
+            <v>0</v>
+          </cell>
           <cell r="C6">
             <v>1.7226068155363029E-2</v>
           </cell>
@@ -3254,6 +3269,9 @@
           <cell r="A7" t="str">
             <v>EAB_R</v>
           </cell>
+          <cell r="B7">
+            <v>0</v>
+          </cell>
           <cell r="C7">
             <v>1.3007255172302723E-2</v>
           </cell>
@@ -3778,6 +3796,9 @@
           <cell r="A8" t="str">
             <v>EAB_L</v>
           </cell>
+          <cell r="B8">
+            <v>0</v>
+          </cell>
           <cell r="C8">
             <v>5.9691933928937603E-3</v>
           </cell>
@@ -4302,6 +4323,9 @@
           <cell r="A9" t="str">
             <v>YAU_R</v>
           </cell>
+          <cell r="B9">
+            <v>0</v>
+          </cell>
           <cell r="C9">
             <v>0</v>
           </cell>
@@ -4826,6 +4850,9 @@
           <cell r="A10" t="str">
             <v>YAU_L</v>
           </cell>
+          <cell r="B10">
+            <v>0</v>
+          </cell>
           <cell r="C10">
             <v>2.321774256672933E-2</v>
           </cell>
@@ -5350,6 +5377,9 @@
           <cell r="A11" t="str">
             <v>AND_R</v>
           </cell>
+          <cell r="B11">
+            <v>0</v>
+          </cell>
           <cell r="C11">
             <v>2.3717305748018072E-2</v>
           </cell>
@@ -5874,6 +5904,9 @@
           <cell r="A12" t="str">
             <v>AND_L</v>
           </cell>
+          <cell r="B12">
+            <v>0</v>
+          </cell>
           <cell r="C12">
             <v>1.6053542838540477E-2</v>
           </cell>
@@ -6398,6 +6431,9 @@
           <cell r="A13" t="str">
             <v>XUF_R</v>
           </cell>
+          <cell r="B13">
+            <v>0</v>
+          </cell>
           <cell r="C13">
             <v>1.5906004204107059E-2</v>
           </cell>
@@ -6921,6 +6957,9 @@
         <row r="14">
           <cell r="A14" t="str">
             <v>XUF_L</v>
+          </cell>
+          <cell r="B14">
+            <v>0</v>
           </cell>
           <cell r="C14">
             <v>0</v>
@@ -7767,7 +7806,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45080374-5481-CA42-8BD4-A17D4E91A9C5}">
   <dimension ref="A1:FS14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -8480,7 +8521,7 @@
       </c>
       <c r="B2">
         <f>'[1]Datafor R'!B2</f>
-        <v>0</v>
+        <v>5.9590277777824667</v>
       </c>
       <c r="C2">
         <f>'[1]Datafor R'!C2</f>
@@ -9182,7 +9223,7 @@
       </c>
       <c r="B3">
         <f>'[1]Datafor R'!B3</f>
-        <v>0</v>
+        <v>4.0868055555547471</v>
       </c>
       <c r="C3">
         <f>'[1]Datafor R'!C3</f>
@@ -9884,7 +9925,7 @@
       </c>
       <c r="B4">
         <f>'[1]Datafor R'!B4</f>
-        <v>0</v>
+        <v>4.3895833333372138</v>
       </c>
       <c r="C4">
         <f>'[1]Datafor R'!C4</f>

--- a/Data/VolunteersV02.xlsx
+++ b/Data/VolunteersV02.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="15" documentId="8_{7C341129-3D96-3C49-AA99-7D534F77425B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D89E7E5-3217-1045-8665-17C65B4A9B24}"/>
   <bookViews>
-    <workbookView xWindow="-41980" yWindow="2980" windowWidth="29400" windowHeight="16900" xr2:uid="{59579006-5D5C-E441-B1BF-CC0305387B64}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{59579006-5D5C-E441-B1BF-CC0305387B64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2213,7 +2213,7 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>MILI_L</v>
+            <v>wb.Mi.o</v>
           </cell>
           <cell r="B5">
             <v>1.5138888888905058</v>
@@ -2740,7 +2740,7 @@
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>MILI_R</v>
+            <v>wb.Mi.h</v>
           </cell>
           <cell r="B6">
             <v>3.2069444444496185</v>
@@ -3267,7 +3267,7 @@
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>EAB_R</v>
+            <v>wb.Ea.h</v>
           </cell>
           <cell r="B7">
             <v>3.5262500000000001</v>
@@ -3285,7 +3285,7 @@
             <v>4.8784960264279961E-2</v>
           </cell>
           <cell r="G7">
-            <v>0.16016406326707275</v>
+            <v>0</v>
           </cell>
           <cell r="H7">
             <v>4.1750202731982634E-2</v>
@@ -3294,13 +3294,13 @@
             <v>1.3356547976695492E-2</v>
           </cell>
           <cell r="J7">
-            <v>0</v>
+            <v>0.14490958135370116</v>
           </cell>
           <cell r="K7">
             <v>1.0622583755268103E-2</v>
           </cell>
           <cell r="L7">
-            <v>0</v>
+            <v>2.7344110879589946E-3</v>
           </cell>
           <cell r="M7">
             <v>0.55981672690702255</v>
@@ -3794,7 +3794,7 @@
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>EAB_L</v>
+            <v>wb.Ea.o</v>
           </cell>
           <cell r="B8">
             <v>0.8630555555401952</v>
@@ -4321,7 +4321,7 @@
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>YAU_R</v>
+            <v>wb.Ya.o</v>
           </cell>
           <cell r="B9">
             <v>1.1049999999962812</v>
@@ -4330,28 +4330,28 @@
             <v>0</v>
           </cell>
           <cell r="D9">
-            <v>3.4855269276734698E-3</v>
+            <v>3.4855269276734689E-3</v>
           </cell>
           <cell r="E9">
-            <v>8.9200672069961826E-3</v>
+            <v>8.9200672069961809E-3</v>
           </cell>
           <cell r="F9">
-            <v>4.6723481686666291E-2</v>
+            <v>4.6723481686666284E-2</v>
           </cell>
           <cell r="G9">
             <v>0</v>
           </cell>
           <cell r="H9">
-            <v>3.4057549077540168E-2</v>
+            <v>3.4057549077540161E-2</v>
           </cell>
           <cell r="I9">
             <v>1.7153600111085084E-2</v>
           </cell>
           <cell r="J9">
-            <v>0.17998183147049271</v>
+            <v>0.17998183147049274</v>
           </cell>
           <cell r="K9">
-            <v>8.9991267225051023E-3</v>
+            <v>8.999126722505104E-3</v>
           </cell>
           <cell r="L9">
             <v>0</v>
@@ -4369,7 +4369,7 @@
             <v>0.12969011845077219</v>
           </cell>
           <cell r="Q9">
-            <v>0.30195464456919668</v>
+            <v>0.30195464456919674</v>
           </cell>
           <cell r="R9">
             <v>0.21549220074965003</v>
@@ -4378,16 +4378,16 @@
             <v>0.46563293279729279</v>
           </cell>
           <cell r="T9">
-            <v>3.1466298571892967E-2</v>
+            <v>3.1466298571892974E-2</v>
           </cell>
           <cell r="U9">
-            <v>1.2632472041207328</v>
+            <v>1.263247204120733</v>
           </cell>
           <cell r="V9">
             <v>0.70807603082214321</v>
           </cell>
           <cell r="W9">
-            <v>0.47604589970589106</v>
+            <v>0.47604589970589101</v>
           </cell>
           <cell r="X9">
             <v>2.9249250641833042E-3</v>
@@ -4402,25 +4402,25 @@
             <v>0.15455573837013062</v>
           </cell>
           <cell r="AB9">
-            <v>3.7120751073416829E-2</v>
+            <v>3.7120751073416836E-2</v>
           </cell>
           <cell r="AC9">
-            <v>0.96939443569289208</v>
+            <v>0.96939443569289219</v>
           </cell>
           <cell r="AD9">
             <v>0.18023585856048091</v>
           </cell>
           <cell r="AE9">
-            <v>5.893034172256271E-3</v>
+            <v>5.8930341722562701E-3</v>
           </cell>
           <cell r="AF9">
-            <v>2.1564490243527763E-2</v>
+            <v>2.1564490243527766E-2</v>
           </cell>
           <cell r="AG9">
             <v>0</v>
           </cell>
           <cell r="AH9">
-            <v>0.32679354925610271</v>
+            <v>0.32679354925610277</v>
           </cell>
           <cell r="AI9">
             <v>0</v>
@@ -4429,7 +4429,7 @@
             <v>2.0212699360351795E-3</v>
           </cell>
           <cell r="AK9">
-            <v>0.42653572340241241</v>
+            <v>0.42653572340241236</v>
           </cell>
           <cell r="AL9">
             <v>0.11246037596379503</v>
@@ -4447,7 +4447,7 @@
             <v>0.13643841732258785</v>
           </cell>
           <cell r="AQ9">
-            <v>5.0670978340818823E-2</v>
+            <v>5.0670978340818816E-2</v>
           </cell>
           <cell r="AR9">
             <v>0.24406055565434145</v>
@@ -4456,7 +4456,7 @@
             <v>0.77226465033806946</v>
           </cell>
           <cell r="AT9">
-            <v>0.16638205427365715</v>
+            <v>0.16638205427365713</v>
           </cell>
           <cell r="AU9">
             <v>0.13408863887163228</v>
@@ -4483,7 +4483,7 @@
             <v>0</v>
           </cell>
           <cell r="BC9">
-            <v>0.23176509545665747</v>
+            <v>0.23176509545665749</v>
           </cell>
           <cell r="BD9">
             <v>2.0920763885656832</v>
@@ -4504,13 +4504,13 @@
             <v>8.5359039952242911E-3</v>
           </cell>
           <cell r="BJ9">
-            <v>8.4622067038519991E-3</v>
+            <v>8.4622067038519974E-3</v>
           </cell>
           <cell r="BK9">
             <v>4.7273126325607529E-3</v>
           </cell>
           <cell r="BL9">
-            <v>7.0010801467968509E-2</v>
+            <v>7.0010801467968495E-2</v>
           </cell>
           <cell r="BM9">
             <v>0</v>
@@ -4525,13 +4525,13 @@
             <v>5.9965767767149666E-3</v>
           </cell>
           <cell r="BQ9">
-            <v>0.19517667033320005</v>
+            <v>0.19517667033320002</v>
           </cell>
           <cell r="BR9">
             <v>0</v>
           </cell>
           <cell r="BS9">
-            <v>0.78164474149101104</v>
+            <v>0.78164474149101093</v>
           </cell>
           <cell r="BT9">
             <v>0.29827363157353903</v>
@@ -4549,7 +4549,7 @@
             <v>7.2698205852755188E-2</v>
           </cell>
           <cell r="BY9">
-            <v>2.6323309692999932</v>
+            <v>2.6323309692999928</v>
           </cell>
           <cell r="BZ9">
             <v>0</v>
@@ -4558,16 +4558,16 @@
             <v>0.55330056904867331</v>
           </cell>
           <cell r="CB9">
-            <v>1.4120540908806873E-2</v>
+            <v>1.4120540908806871E-2</v>
           </cell>
           <cell r="CC9">
-            <v>2.0043693654151207E-2</v>
+            <v>2.0043693654151203E-2</v>
           </cell>
           <cell r="CD9">
             <v>2.9376422428428066</v>
           </cell>
           <cell r="CE9">
-            <v>2.5655536171686692E-2</v>
+            <v>2.5655536171686689E-2</v>
           </cell>
           <cell r="CF9">
             <v>2.3042844005004573E-2</v>
@@ -4576,7 +4576,7 @@
             <v>1.0837334889374375</v>
           </cell>
           <cell r="CH9">
-            <v>8.7363853102577979E-2</v>
+            <v>8.7363853102577965E-2</v>
           </cell>
           <cell r="CI9">
             <v>2.319638820263582E-2</v>
@@ -4588,16 +4588,16 @@
             <v>0.45720341004703785</v>
           </cell>
           <cell r="CL9">
-            <v>7.5403375076327972E-3</v>
+            <v>7.5403375076327963E-3</v>
           </cell>
           <cell r="CM9">
             <v>7.3193175782739775E-2</v>
           </cell>
           <cell r="CN9">
-            <v>6.4459123193251242E-2</v>
+            <v>6.4459123193251228E-2</v>
           </cell>
           <cell r="CO9">
-            <v>1.8574912988215611</v>
+            <v>1.8574912988215608</v>
           </cell>
           <cell r="CP9">
             <v>0</v>
@@ -4606,34 +4606,34 @@
             <v>2.3903845642646217E-3</v>
           </cell>
           <cell r="CR9">
-            <v>3.7644559463385359E-2</v>
+            <v>3.7644559463385352E-2</v>
           </cell>
           <cell r="CS9">
             <v>0</v>
           </cell>
           <cell r="CT9">
-            <v>4.3893466038595993E-2</v>
+            <v>4.3893466038595987E-2</v>
           </cell>
           <cell r="CU9">
-            <v>1.2300176654843618</v>
+            <v>1.2300176654843615</v>
           </cell>
           <cell r="CV9">
             <v>0</v>
           </cell>
           <cell r="CW9">
-            <v>4.4993626716367582E-3</v>
+            <v>4.4993626716367573E-3</v>
           </cell>
           <cell r="CX9">
-            <v>1.807482500965224E-2</v>
+            <v>1.8074825009652237E-2</v>
           </cell>
           <cell r="CY9">
             <v>2.5396797258379965E-2</v>
           </cell>
           <cell r="CZ9">
-            <v>4.7748886056531289E-3</v>
+            <v>4.774888605653128E-3</v>
           </cell>
           <cell r="DA9">
-            <v>1.4234809762883851E-2</v>
+            <v>1.4234809762883849E-2</v>
           </cell>
           <cell r="DB9">
             <v>0.13591870585590171</v>
@@ -4848,7 +4848,7 @@
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>YAU_L</v>
+            <v>wb.Ta.h</v>
           </cell>
           <cell r="B10">
             <v>3.3166666666656965</v>
@@ -5375,7 +5375,7 @@
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>AND_R</v>
+            <v>wb.An.h</v>
           </cell>
           <cell r="B11">
             <v>3.7844444444418572</v>
@@ -5393,7 +5393,7 @@
             <v>0.25904916240570924</v>
           </cell>
           <cell r="G11">
-            <v>0.39054799123941603</v>
+            <v>0</v>
           </cell>
           <cell r="H11">
             <v>0.13186401447039298</v>
@@ -5402,7 +5402,7 @@
             <v>2.3044924801316174E-2</v>
           </cell>
           <cell r="J11">
-            <v>0</v>
+            <v>0.36157612312188819</v>
           </cell>
           <cell r="K11">
             <v>2.3383253513080932E-2</v>
@@ -5423,10 +5423,10 @@
             <v>8.4250773433167878E-2</v>
           </cell>
           <cell r="Q11">
-            <v>0</v>
+            <v>0.49484795474277515</v>
           </cell>
           <cell r="R11">
-            <v>0.47375489457102177</v>
+            <v>3.9276950941239304</v>
           </cell>
           <cell r="S11">
             <v>0.89931613185096881</v>
@@ -5447,7 +5447,7 @@
             <v>5.7579624561924564E-3</v>
           </cell>
           <cell r="Y11">
-            <v>0.28412335771378783</v>
+            <v>1.515384888299935E-3</v>
           </cell>
           <cell r="Z11">
             <v>6.6115253436070776E-2</v>
@@ -5456,7 +5456,7 @@
             <v>0.12716705873436737</v>
           </cell>
           <cell r="AB11">
-            <v>0</v>
+            <v>5.5705370292952257E-2</v>
           </cell>
           <cell r="AC11">
             <v>0.64977302374869217</v>
@@ -5902,7 +5902,7 @@
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>AND_L</v>
+            <v>wb.An.o</v>
           </cell>
           <cell r="B12">
             <v>0.88861111110852409</v>
@@ -6429,7 +6429,7 @@
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>XUF_R</v>
+            <v>wb.Xu.h</v>
           </cell>
           <cell r="B13">
             <v>3.569583333337214</v>
@@ -6956,7 +6956,7 @@
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>XUF_L</v>
+            <v>wb.Xu.o</v>
           </cell>
           <cell r="B14">
             <v>0.87402777778392193</v>
@@ -6974,7 +6974,7 @@
             <v>2.1307459032682507E-2</v>
           </cell>
           <cell r="G14">
-            <v>6.69204529108164E-2</v>
+            <v>0</v>
           </cell>
           <cell r="H14">
             <v>1.5909680902354464E-2</v>
@@ -6983,7 +6983,7 @@
             <v>0</v>
           </cell>
           <cell r="J14">
-            <v>0</v>
+            <v>6.195611925762172E-2</v>
           </cell>
           <cell r="K14">
             <v>5.4452587861345816E-3</v>
@@ -7343,7 +7343,7 @@
             <v>1.5354111786367568E-2</v>
           </cell>
           <cell r="DZ14">
-            <v>0</v>
+            <v>3.3744767512052493E-2</v>
           </cell>
           <cell r="EA14">
             <v>5.3708152037012458E-2</v>
@@ -7806,13 +7806,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45080374-5481-CA42-8BD4-A17D4E91A9C5}">
   <dimension ref="A1:FS14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FG1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="FR6" sqref="FR6"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:175" x14ac:dyDescent="0.4">
       <c r="A1" t="str">
         <f>'[1]Datafor R'!A1</f>
         <v>ID_mod</v>
@@ -8514,7 +8514,7 @@
         <v>PCB209</v>
       </c>
     </row>
-    <row r="2" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:175" x14ac:dyDescent="0.4">
       <c r="A2" t="str">
         <f>'[1]Datafor R'!A2</f>
         <v>STAT01</v>
@@ -9216,7 +9216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:175" x14ac:dyDescent="0.4">
       <c r="A3" t="str">
         <f>'[1]Datafor R'!A3</f>
         <v>STAT02</v>
@@ -9918,7 +9918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:175" x14ac:dyDescent="0.4">
       <c r="A4" t="str">
         <f>'[1]Datafor R'!A4</f>
         <v>STAT03</v>
@@ -10620,10 +10620,10 @@
         <v>2.7289391999654977E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:175" x14ac:dyDescent="0.4">
       <c r="A5" t="str">
         <f>'[1]Datafor R'!A5</f>
-        <v>MILI_L</v>
+        <v>wb.Mi.o</v>
       </c>
       <c r="B5">
         <f>'[1]Datafor R'!B5</f>
@@ -11322,10 +11322,10 @@
         <v>2.3532736463185887E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:175" x14ac:dyDescent="0.4">
       <c r="A6" t="str">
         <f>'[1]Datafor R'!A6</f>
-        <v>MILI_R</v>
+        <v>wb.Mi.h</v>
       </c>
       <c r="B6">
         <f>'[1]Datafor R'!B6</f>
@@ -12024,10 +12024,10 @@
         <v>2.2986553605209431E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:175" x14ac:dyDescent="0.4">
       <c r="A7" t="str">
         <f>'[1]Datafor R'!A7</f>
-        <v>EAB_R</v>
+        <v>wb.Ea.h</v>
       </c>
       <c r="B7">
         <f>'[1]Datafor R'!B7</f>
@@ -12051,7 +12051,7 @@
       </c>
       <c r="G7">
         <f>'[1]Datafor R'!G7</f>
-        <v>0.16016406326707275</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <f>'[1]Datafor R'!H7</f>
@@ -12063,7 +12063,7 @@
       </c>
       <c r="J7">
         <f>'[1]Datafor R'!J7</f>
-        <v>0</v>
+        <v>0.14490958135370116</v>
       </c>
       <c r="K7">
         <f>'[1]Datafor R'!K7</f>
@@ -12071,7 +12071,7 @@
       </c>
       <c r="L7">
         <f>'[1]Datafor R'!L7</f>
-        <v>0</v>
+        <v>2.7344110879589946E-3</v>
       </c>
       <c r="M7">
         <f>'[1]Datafor R'!M7</f>
@@ -12726,10 +12726,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:175" x14ac:dyDescent="0.4">
       <c r="A8" t="str">
         <f>'[1]Datafor R'!A8</f>
-        <v>EAB_L</v>
+        <v>wb.Ea.o</v>
       </c>
       <c r="B8">
         <f>'[1]Datafor R'!B8</f>
@@ -13428,10 +13428,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:175" x14ac:dyDescent="0.4">
       <c r="A9" t="str">
         <f>'[1]Datafor R'!A9</f>
-        <v>YAU_R</v>
+        <v>wb.Ya.o</v>
       </c>
       <c r="B9">
         <f>'[1]Datafor R'!B9</f>
@@ -13443,15 +13443,15 @@
       </c>
       <c r="D9">
         <f>'[1]Datafor R'!D9</f>
-        <v>3.4855269276734698E-3</v>
+        <v>3.4855269276734689E-3</v>
       </c>
       <c r="E9">
         <f>'[1]Datafor R'!E9</f>
-        <v>8.9200672069961826E-3</v>
+        <v>8.9200672069961809E-3</v>
       </c>
       <c r="F9">
         <f>'[1]Datafor R'!F9</f>
-        <v>4.6723481686666291E-2</v>
+        <v>4.6723481686666284E-2</v>
       </c>
       <c r="G9">
         <f>'[1]Datafor R'!G9</f>
@@ -13459,7 +13459,7 @@
       </c>
       <c r="H9">
         <f>'[1]Datafor R'!H9</f>
-        <v>3.4057549077540168E-2</v>
+        <v>3.4057549077540161E-2</v>
       </c>
       <c r="I9">
         <f>'[1]Datafor R'!I9</f>
@@ -13467,11 +13467,11 @@
       </c>
       <c r="J9">
         <f>'[1]Datafor R'!J9</f>
-        <v>0.17998183147049271</v>
+        <v>0.17998183147049274</v>
       </c>
       <c r="K9">
         <f>'[1]Datafor R'!K9</f>
-        <v>8.9991267225051023E-3</v>
+        <v>8.999126722505104E-3</v>
       </c>
       <c r="L9">
         <f>'[1]Datafor R'!L9</f>
@@ -13495,7 +13495,7 @@
       </c>
       <c r="Q9">
         <f>'[1]Datafor R'!Q9</f>
-        <v>0.30195464456919668</v>
+        <v>0.30195464456919674</v>
       </c>
       <c r="R9">
         <f>'[1]Datafor R'!R9</f>
@@ -13507,11 +13507,11 @@
       </c>
       <c r="T9">
         <f>'[1]Datafor R'!T9</f>
-        <v>3.1466298571892967E-2</v>
+        <v>3.1466298571892974E-2</v>
       </c>
       <c r="U9">
         <f>'[1]Datafor R'!U9</f>
-        <v>1.2632472041207328</v>
+        <v>1.263247204120733</v>
       </c>
       <c r="V9">
         <f>'[1]Datafor R'!V9</f>
@@ -13519,7 +13519,7 @@
       </c>
       <c r="W9">
         <f>'[1]Datafor R'!W9</f>
-        <v>0.47604589970589106</v>
+        <v>0.47604589970589101</v>
       </c>
       <c r="X9">
         <f>'[1]Datafor R'!X9</f>
@@ -13539,11 +13539,11 @@
       </c>
       <c r="AB9">
         <f>'[1]Datafor R'!AB9</f>
-        <v>3.7120751073416829E-2</v>
+        <v>3.7120751073416836E-2</v>
       </c>
       <c r="AC9">
         <f>'[1]Datafor R'!AC9</f>
-        <v>0.96939443569289208</v>
+        <v>0.96939443569289219</v>
       </c>
       <c r="AD9">
         <f>'[1]Datafor R'!AD9</f>
@@ -13551,11 +13551,11 @@
       </c>
       <c r="AE9">
         <f>'[1]Datafor R'!AE9</f>
-        <v>5.893034172256271E-3</v>
+        <v>5.8930341722562701E-3</v>
       </c>
       <c r="AF9">
         <f>'[1]Datafor R'!AF9</f>
-        <v>2.1564490243527763E-2</v>
+        <v>2.1564490243527766E-2</v>
       </c>
       <c r="AG9">
         <f>'[1]Datafor R'!AG9</f>
@@ -13563,7 +13563,7 @@
       </c>
       <c r="AH9">
         <f>'[1]Datafor R'!AH9</f>
-        <v>0.32679354925610271</v>
+        <v>0.32679354925610277</v>
       </c>
       <c r="AI9">
         <f>'[1]Datafor R'!AI9</f>
@@ -13575,7 +13575,7 @@
       </c>
       <c r="AK9">
         <f>'[1]Datafor R'!AK9</f>
-        <v>0.42653572340241241</v>
+        <v>0.42653572340241236</v>
       </c>
       <c r="AL9">
         <f>'[1]Datafor R'!AL9</f>
@@ -13599,7 +13599,7 @@
       </c>
       <c r="AQ9">
         <f>'[1]Datafor R'!AQ9</f>
-        <v>5.0670978340818823E-2</v>
+        <v>5.0670978340818816E-2</v>
       </c>
       <c r="AR9">
         <f>'[1]Datafor R'!AR9</f>
@@ -13611,7 +13611,7 @@
       </c>
       <c r="AT9">
         <f>'[1]Datafor R'!AT9</f>
-        <v>0.16638205427365715</v>
+        <v>0.16638205427365713</v>
       </c>
       <c r="AU9">
         <f>'[1]Datafor R'!AU9</f>
@@ -13647,7 +13647,7 @@
       </c>
       <c r="BC9">
         <f>'[1]Datafor R'!BC9</f>
-        <v>0.23176509545665747</v>
+        <v>0.23176509545665749</v>
       </c>
       <c r="BD9">
         <f>'[1]Datafor R'!BD9</f>
@@ -13675,7 +13675,7 @@
       </c>
       <c r="BJ9">
         <f>'[1]Datafor R'!BJ9</f>
-        <v>8.4622067038519991E-3</v>
+        <v>8.4622067038519974E-3</v>
       </c>
       <c r="BK9">
         <f>'[1]Datafor R'!BK9</f>
@@ -13683,7 +13683,7 @@
       </c>
       <c r="BL9">
         <f>'[1]Datafor R'!BL9</f>
-        <v>7.0010801467968509E-2</v>
+        <v>7.0010801467968495E-2</v>
       </c>
       <c r="BM9">
         <f>'[1]Datafor R'!BM9</f>
@@ -13703,7 +13703,7 @@
       </c>
       <c r="BQ9">
         <f>'[1]Datafor R'!BQ9</f>
-        <v>0.19517667033320005</v>
+        <v>0.19517667033320002</v>
       </c>
       <c r="BR9">
         <f>'[1]Datafor R'!BR9</f>
@@ -13711,7 +13711,7 @@
       </c>
       <c r="BS9">
         <f>'[1]Datafor R'!BS9</f>
-        <v>0.78164474149101104</v>
+        <v>0.78164474149101093</v>
       </c>
       <c r="BT9">
         <f>'[1]Datafor R'!BT9</f>
@@ -13735,7 +13735,7 @@
       </c>
       <c r="BY9">
         <f>'[1]Datafor R'!BY9</f>
-        <v>2.6323309692999932</v>
+        <v>2.6323309692999928</v>
       </c>
       <c r="BZ9">
         <f>'[1]Datafor R'!BZ9</f>
@@ -13747,11 +13747,11 @@
       </c>
       <c r="CB9">
         <f>'[1]Datafor R'!CB9</f>
-        <v>1.4120540908806873E-2</v>
+        <v>1.4120540908806871E-2</v>
       </c>
       <c r="CC9">
         <f>'[1]Datafor R'!CC9</f>
-        <v>2.0043693654151207E-2</v>
+        <v>2.0043693654151203E-2</v>
       </c>
       <c r="CD9">
         <f>'[1]Datafor R'!CD9</f>
@@ -13759,7 +13759,7 @@
       </c>
       <c r="CE9">
         <f>'[1]Datafor R'!CE9</f>
-        <v>2.5655536171686692E-2</v>
+        <v>2.5655536171686689E-2</v>
       </c>
       <c r="CF9">
         <f>'[1]Datafor R'!CF9</f>
@@ -13771,7 +13771,7 @@
       </c>
       <c r="CH9">
         <f>'[1]Datafor R'!CH9</f>
-        <v>8.7363853102577979E-2</v>
+        <v>8.7363853102577965E-2</v>
       </c>
       <c r="CI9">
         <f>'[1]Datafor R'!CI9</f>
@@ -13787,7 +13787,7 @@
       </c>
       <c r="CL9">
         <f>'[1]Datafor R'!CL9</f>
-        <v>7.5403375076327972E-3</v>
+        <v>7.5403375076327963E-3</v>
       </c>
       <c r="CM9">
         <f>'[1]Datafor R'!CM9</f>
@@ -13795,11 +13795,11 @@
       </c>
       <c r="CN9">
         <f>'[1]Datafor R'!CN9</f>
-        <v>6.4459123193251242E-2</v>
+        <v>6.4459123193251228E-2</v>
       </c>
       <c r="CO9">
         <f>'[1]Datafor R'!CO9</f>
-        <v>1.8574912988215611</v>
+        <v>1.8574912988215608</v>
       </c>
       <c r="CP9">
         <f>'[1]Datafor R'!CP9</f>
@@ -13811,7 +13811,7 @@
       </c>
       <c r="CR9">
         <f>'[1]Datafor R'!CR9</f>
-        <v>3.7644559463385359E-2</v>
+        <v>3.7644559463385352E-2</v>
       </c>
       <c r="CS9">
         <f>'[1]Datafor R'!CS9</f>
@@ -13819,11 +13819,11 @@
       </c>
       <c r="CT9">
         <f>'[1]Datafor R'!CT9</f>
-        <v>4.3893466038595993E-2</v>
+        <v>4.3893466038595987E-2</v>
       </c>
       <c r="CU9">
         <f>'[1]Datafor R'!CU9</f>
-        <v>1.2300176654843618</v>
+        <v>1.2300176654843615</v>
       </c>
       <c r="CV9">
         <f>'[1]Datafor R'!CV9</f>
@@ -13831,11 +13831,11 @@
       </c>
       <c r="CW9">
         <f>'[1]Datafor R'!CW9</f>
-        <v>4.4993626716367582E-3</v>
+        <v>4.4993626716367573E-3</v>
       </c>
       <c r="CX9">
         <f>'[1]Datafor R'!CX9</f>
-        <v>1.807482500965224E-2</v>
+        <v>1.8074825009652237E-2</v>
       </c>
       <c r="CY9">
         <f>'[1]Datafor R'!CY9</f>
@@ -13843,11 +13843,11 @@
       </c>
       <c r="CZ9">
         <f>'[1]Datafor R'!CZ9</f>
-        <v>4.7748886056531289E-3</v>
+        <v>4.774888605653128E-3</v>
       </c>
       <c r="DA9">
         <f>'[1]Datafor R'!DA9</f>
-        <v>1.4234809762883851E-2</v>
+        <v>1.4234809762883849E-2</v>
       </c>
       <c r="DB9">
         <f>'[1]Datafor R'!DB9</f>
@@ -14130,10 +14130,10 @@
         <v>1.9191998661773638E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:175" x14ac:dyDescent="0.4">
       <c r="A10" t="str">
         <f>'[1]Datafor R'!A10</f>
-        <v>YAU_L</v>
+        <v>wb.Ta.h</v>
       </c>
       <c r="B10">
         <f>'[1]Datafor R'!B10</f>
@@ -14832,10 +14832,10 @@
         <v>2.2564604281117485E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:175" x14ac:dyDescent="0.4">
       <c r="A11" t="str">
         <f>'[1]Datafor R'!A11</f>
-        <v>AND_R</v>
+        <v>wb.An.h</v>
       </c>
       <c r="B11">
         <f>'[1]Datafor R'!B11</f>
@@ -14859,7 +14859,7 @@
       </c>
       <c r="G11">
         <f>'[1]Datafor R'!G11</f>
-        <v>0.39054799123941603</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <f>'[1]Datafor R'!H11</f>
@@ -14871,7 +14871,7 @@
       </c>
       <c r="J11">
         <f>'[1]Datafor R'!J11</f>
-        <v>0</v>
+        <v>0.36157612312188819</v>
       </c>
       <c r="K11">
         <f>'[1]Datafor R'!K11</f>
@@ -14899,11 +14899,11 @@
       </c>
       <c r="Q11">
         <f>'[1]Datafor R'!Q11</f>
-        <v>0</v>
+        <v>0.49484795474277515</v>
       </c>
       <c r="R11">
         <f>'[1]Datafor R'!R11</f>
-        <v>0.47375489457102177</v>
+        <v>3.9276950941239304</v>
       </c>
       <c r="S11">
         <f>'[1]Datafor R'!S11</f>
@@ -14931,7 +14931,7 @@
       </c>
       <c r="Y11">
         <f>'[1]Datafor R'!Y11</f>
-        <v>0.28412335771378783</v>
+        <v>1.515384888299935E-3</v>
       </c>
       <c r="Z11">
         <f>'[1]Datafor R'!Z11</f>
@@ -14943,7 +14943,7 @@
       </c>
       <c r="AB11">
         <f>'[1]Datafor R'!AB11</f>
-        <v>0</v>
+        <v>5.5705370292952257E-2</v>
       </c>
       <c r="AC11">
         <f>'[1]Datafor R'!AC11</f>
@@ -15534,10 +15534,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:175" x14ac:dyDescent="0.4">
       <c r="A12" t="str">
         <f>'[1]Datafor R'!A12</f>
-        <v>AND_L</v>
+        <v>wb.An.o</v>
       </c>
       <c r="B12">
         <f>'[1]Datafor R'!B12</f>
@@ -16236,10 +16236,10 @@
         <v>2.2705667520155078E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:175" x14ac:dyDescent="0.4">
       <c r="A13" t="str">
         <f>'[1]Datafor R'!A13</f>
-        <v>XUF_R</v>
+        <v>wb.Xu.h</v>
       </c>
       <c r="B13">
         <f>'[1]Datafor R'!B13</f>
@@ -16938,10 +16938,10 @@
         <v>4.680979292829221E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:175" x14ac:dyDescent="0.4">
       <c r="A14" t="str">
         <f>'[1]Datafor R'!A14</f>
-        <v>XUF_L</v>
+        <v>wb.Xu.o</v>
       </c>
       <c r="B14">
         <f>'[1]Datafor R'!B14</f>
@@ -16965,7 +16965,7 @@
       </c>
       <c r="G14">
         <f>'[1]Datafor R'!G14</f>
-        <v>6.69204529108164E-2</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <f>'[1]Datafor R'!H14</f>
@@ -16977,7 +16977,7 @@
       </c>
       <c r="J14">
         <f>'[1]Datafor R'!J14</f>
-        <v>0</v>
+        <v>6.195611925762172E-2</v>
       </c>
       <c r="K14">
         <f>'[1]Datafor R'!K14</f>
@@ -17457,7 +17457,7 @@
       </c>
       <c r="DZ14">
         <f>'[1]Datafor R'!DZ14</f>
-        <v>0</v>
+        <v>3.3744767512052493E-2</v>
       </c>
       <c r="EA14">
         <f>'[1]Datafor R'!EA14</f>

--- a/Data/VolunteersV02.xlsx
+++ b/Data/VolunteersV02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iowa-my.sharepoint.com/personal/martie_uiowa_edu/Documents/Work/ISRP/Project3/Wristband/WristBandProject/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{7C341129-3D96-3C49-AA99-7D534F77425B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D89E7E5-3217-1045-8665-17C65B4A9B24}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{7C341129-3D96-3C49-AA99-7D534F77425B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B3093CF-2CEE-40CC-830C-E1A24274903D}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{59579006-5D5C-E441-B1BF-CC0305387B64}"/>
+    <workbookView xWindow="7160" yWindow="290" windowWidth="28820" windowHeight="20150" xr2:uid="{59579006-5D5C-E441-B1BF-CC0305387B64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4848,7 +4848,7 @@
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>wb.Ta.h</v>
+            <v>wb.Ya.h</v>
           </cell>
           <cell r="B10">
             <v>3.3166666666656965</v>
@@ -5426,7 +5426,7 @@
             <v>0.49484795474277515</v>
           </cell>
           <cell r="R11">
-            <v>3.9276950941239304</v>
+            <v>0.30782942391693102</v>
           </cell>
           <cell r="S11">
             <v>0.89931613185096881</v>
@@ -5447,7 +5447,7 @@
             <v>5.7579624561924564E-3</v>
           </cell>
           <cell r="Y11">
-            <v>1.515384888299935E-3</v>
+            <v>2.3884275254398978E-2</v>
           </cell>
           <cell r="Z11">
             <v>6.6115253436070776E-2</v>
@@ -5456,7 +5456,7 @@
             <v>0.12716705873436737</v>
           </cell>
           <cell r="AB11">
-            <v>5.5705370292952257E-2</v>
+            <v>4.608829279023581E-2</v>
           </cell>
           <cell r="AC11">
             <v>0.64977302374869217</v>
@@ -7806,8 +7806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45080374-5481-CA42-8BD4-A17D4E91A9C5}">
   <dimension ref="A1:FS14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="BW1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="BY1" sqref="BY1:BY14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -14133,7 +14133,7 @@
     <row r="10" spans="1:175" x14ac:dyDescent="0.4">
       <c r="A10" t="str">
         <f>'[1]Datafor R'!A10</f>
-        <v>wb.Ta.h</v>
+        <v>wb.Ya.h</v>
       </c>
       <c r="B10">
         <f>'[1]Datafor R'!B10</f>
@@ -14903,7 +14903,7 @@
       </c>
       <c r="R11">
         <f>'[1]Datafor R'!R11</f>
-        <v>3.9276950941239304</v>
+        <v>0.30782942391693102</v>
       </c>
       <c r="S11">
         <f>'[1]Datafor R'!S11</f>
@@ -14931,7 +14931,7 @@
       </c>
       <c r="Y11">
         <f>'[1]Datafor R'!Y11</f>
-        <v>1.515384888299935E-3</v>
+        <v>2.3884275254398978E-2</v>
       </c>
       <c r="Z11">
         <f>'[1]Datafor R'!Z11</f>
@@ -14943,7 +14943,7 @@
       </c>
       <c r="AB11">
         <f>'[1]Datafor R'!AB11</f>
-        <v>5.5705370292952257E-2</v>
+        <v>4.608829279023581E-2</v>
       </c>
       <c r="AC11">
         <f>'[1]Datafor R'!AC11</f>
